--- a/XAutomateMVC/TestCases/core_3.xlsx
+++ b/XAutomateMVC/TestCases/core_3.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <x:si>
+    <x:t>TC Id</x:t>
+  </x:si>
   <x:si>
     <x:t>Test Approach</x:t>
   </x:si>
@@ -22,6 +25,9 @@
     <x:t>Rule Name</x:t>
   </x:si>
   <x:si>
+    <x:t>TestCae Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Schema</x:t>
   </x:si>
   <x:si>
@@ -46,6 +52,12 @@
     <x:t>Expected Value</x:t>
   </x:si>
   <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>446</x:t>
+  </x:si>
+  <x:si>
     <x:t>Core_referential_integrity_check</x:t>
   </x:si>
   <x:si>
@@ -58,37 +70,55 @@
     <x:t>Employee</x:t>
   </x:si>
   <x:si>
-    <x:t>employee_ID</x:t>
+    <x:t>Employee_ID</x:t>
   </x:si>
   <x:si>
     <x:t>employee_manager</x:t>
   </x:si>
   <x:si>
-    <x:t>manager_ID</x:t>
+    <x:t>Manager_ID</x:t>
   </x:si>
   <x:si>
     <x:t>Row Count Is 0</x:t>
   </x:si>
   <x:si>
+    <x:t>447</x:t>
+  </x:si>
+  <x:si>
     <x:t>METADATA</x:t>
   </x:si>
   <x:si>
     <x:t>key_employee_id</x:t>
   </x:si>
   <x:si>
-    <x:t>EMPLOYEE_ID</x:t>
+    <x:t>employee_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>449</x:t>
   </x:si>
   <x:si>
     <x:t>Employee_Status</x:t>
   </x:si>
   <x:si>
+    <x:t>450</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ref_Status_Type</x:t>
   </x:si>
   <x:si>
     <x:t>STATUS_TYPE_CD</x:t>
   </x:si>
   <x:si>
+    <x:t>451</x:t>
+  </x:si>
+  <x:si>
     <x:t>Employee_Email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>452</x:t>
   </x:si>
   <x:si>
     <x:t>Employee_Phone</x:t>
@@ -155,19 +185,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="core_3" displayName="core_3" ref="A1:J8" totalsRowShown="0">
-  <x:autoFilter ref="A1:J8"/>
-  <x:tableColumns count="10">
-    <x:tableColumn id="1" name="Test Approach"/>
-    <x:tableColumn id="2" name="Rule Name"/>
-    <x:tableColumn id="3" name="Schema"/>
-    <x:tableColumn id="4" name="Table_name"/>
-    <x:tableColumn id="5" name="Column_Name"/>
-    <x:tableColumn id="6" name="Schema1"/>
-    <x:tableColumn id="7" name="Table_name2"/>
-    <x:tableColumn id="8" name="Column_Name3"/>
-    <x:tableColumn id="9" name="Expected Result"/>
-    <x:tableColumn id="10" name="Expected Value"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="core_3" displayName="core_3" ref="A1:M8" totalsRowShown="0">
+  <x:autoFilter ref="A1:M8"/>
+  <x:tableColumns count="13">
+    <x:tableColumn id="1" name="TC Id"/>
+    <x:tableColumn id="2" name="Test Approach"/>
+    <x:tableColumn id="3" name="Rule Name"/>
+    <x:tableColumn id="4" name="TestCae Name"/>
+    <x:tableColumn id="5" name="Schema"/>
+    <x:tableColumn id="6" name="Table_name"/>
+    <x:tableColumn id="7" name="Column_Name"/>
+    <x:tableColumn id="8" name="Schema1"/>
+    <x:tableColumn id="9" name="Table_name2"/>
+    <x:tableColumn id="10" name="Column_Name3"/>
+    <x:tableColumn id="11" name="Expected Result"/>
+    <x:tableColumn id="12" name="Expected Value"/>
+    <x:tableColumn id="13" name="Description"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -461,13 +494,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J8"/>
+  <x:dimension ref="A1:M8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:10">
+    <x:row r="1" spans="1:13">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -498,208 +531,259 @@
       <x:c r="J1" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:10">
+    <x:row r="2" spans="1:13">
       <x:c r="A2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13">
+      <x:c r="A3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="A3" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:10">
+    <x:row r="4" spans="1:13">
       <x:c r="A4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13">
+      <x:c r="A5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
+      <x:c r="D5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:13">
+      <x:c r="A6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="I4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
+    </x:row>
+    <x:row r="7" spans="1:13">
+      <x:c r="A7" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
+    <x:row r="8" spans="1:13">
+      <x:c r="A8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="K8" s="0" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
